--- a/biology/Botanique/Hippomaneae/Hippomaneae.xlsx
+++ b/biology/Botanique/Hippomaneae/Hippomaneae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hippomaneae sont une tribu de plantes à fleurs dicotylédones de la famille des Euphorbiaceae et de la sous-famille des Euphorbioideae,  qui comprend 33 genres répartis en deux sous-tribus.
 </t>
@@ -513,9 +525,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-tribu des Carumbiinae
-Homalanthus A.Juss.
-Sous-tribu des Hippomaninae
+          <t>Sous-tribu des Carumbiinae</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Homalanthus A.Juss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hippomaneae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hippomaneae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Hippomaninae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Actinostemon Mart. ex Klotzsch
 Adenopeltis
 Anomostachys
